--- a/data/trans_dic/Predimed_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Predimed_R2-Estudios-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.8360795277766051</v>
+        <v>0.836079527776605</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.8417840440441443</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8394799608187136</v>
+        <v>0.8394799608187138</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8036272688807818</v>
+        <v>0.8041618858768089</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8218890799455278</v>
+        <v>0.8197161176753328</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8213308827078716</v>
+        <v>0.8199009652051563</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8678859117263549</v>
+        <v>0.8647881916928265</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8604128010216098</v>
+        <v>0.8619979901519119</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.857208256263054</v>
+        <v>0.855556622452068</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.8382748010295558</v>
+        <v>0.8382748010295556</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.8114352021584036</v>
+        <v>0.8114352021584037</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.824945276111486</v>
+        <v>0.8249452761114859</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8205347696460454</v>
+        <v>0.8215384635514381</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7949132192384528</v>
+        <v>0.7948941854682506</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.813186869565678</v>
+        <v>0.812193594676607</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8573024990667328</v>
+        <v>0.8546870544604284</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8283211214931682</v>
+        <v>0.8265540794038013</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8358638054916501</v>
+        <v>0.8363106333062268</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.7758414102240947</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7738265363701241</v>
+        <v>0.7738265363701242</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.735326150992665</v>
+        <v>0.7337168292361036</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7467162182638981</v>
+        <v>0.7464623729417245</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7504065763830774</v>
+        <v>0.7485903032448232</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8096108508473029</v>
+        <v>0.8050864762481788</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8028668083206544</v>
+        <v>0.8024346886863698</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7957992915515658</v>
+        <v>0.7947787337516776</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8240312459143705</v>
+        <v>0.8240312459143706</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8108964959953636</v>
+        <v>0.8108964959953635</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.81723199963816</v>
+        <v>0.8172319996381601</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8098312159954659</v>
+        <v>0.8089694331996743</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7991062038520179</v>
+        <v>0.7990003330228486</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8085450453316338</v>
+        <v>0.8077528847963422</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8382928726235606</v>
+        <v>0.8381590349305775</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8212266752902873</v>
+        <v>0.8221973896137293</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8254508665808872</v>
+        <v>0.8261807873471008</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>415301</v>
+        <v>415577</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>626842</v>
+        <v>625184</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1050866</v>
+        <v>1049036</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>448509</v>
+        <v>446908</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>656223</v>
+        <v>657432</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1096770</v>
+        <v>1094656</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1696804</v>
+        <v>1698879</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1621852</v>
+        <v>1621813</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3340744</v>
+        <v>3336663</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1772836</v>
+        <v>1767428</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1690014</v>
+        <v>1686408</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>3433906</v>
+        <v>3435741</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>501846</v>
+        <v>500748</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>525215</v>
+        <v>525036</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1039948</v>
+        <v>1037431</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>552544</v>
+        <v>549456</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>564709</v>
+        <v>564405</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1102855</v>
+        <v>1101441</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2645871</v>
+        <v>2643055</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2801936</v>
+        <v>2801565</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5476701</v>
+        <v>5471335</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2738860</v>
+        <v>2738423</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2879498</v>
+        <v>2882902</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5591213</v>
+        <v>5596157</v>
       </c>
     </row>
     <row r="20">
